--- a/Greengarden/Ressources/Travaux/Back end/Scripts/Consultation client commercial.xlsx
+++ b/Greengarden/Ressources/Travaux/Back end/Scripts/Consultation client commercial.xlsx
@@ -51,13 +51,13 @@
     <t>Requete</t>
   </si>
   <si>
-    <t>Consultation de la liste des client d'un commercial (Richter)</t>
-  </si>
-  <si>
     <t>Résultat</t>
   </si>
   <si>
     <t>select civilite, nomClient, prenomClient from client join commercial ON client.id_commercial=commercial.id_commercial where nomCommercial="Richter";</t>
+  </si>
+  <si>
+    <t>Consultation de la liste des clients d'un commercial (Richter)</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
@@ -907,12 +907,12 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
